--- a/overhead/visualization/ros_default.xlsx
+++ b/overhead/visualization/ros_default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\ros\Visualizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\hplf_benchmarks\overhead\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50800D07-9B0B-42D5-80BA-0DAC1D9ACBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAB54F4-0EBE-4714-AE9B-2D13526A4DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="0" windowWidth="14775" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="1890" windowWidth="14775" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="291">
   <si>
     <t>Episode: 25</t>
   </si>
@@ -739,6 +739,165 @@
   </si>
   <si>
     <t>Overhead: 7.72515 seconds</t>
+  </si>
+  <si>
+    <t>5MB</t>
+  </si>
+  <si>
+    <t>Time taken: 27.22999 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.59811 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 28.30826 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57827 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 29.39920 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.59094 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 30.50175 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.60254 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 31.58369 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.58195 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 32.64858 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.56488 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 33.73564 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.58706 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 34.80911 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57347 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 35.88375 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57465 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 36.96954 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.58578 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 38.04420 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57467 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 39.10953 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.56532 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 40.18137 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57184 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 41.27248 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.59111 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 42.33171 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.55923 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 43.40274 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57103 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 44.47879 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57605 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 45.58414 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.60534 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 46.67877 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.59463 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 47.73719 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.55843 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 48.80277 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.56558 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 49.90042 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.59765 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 50.97176 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.57133 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 52.05822 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.58646 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 53.12766 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.56944 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 54.19444 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.56678 seconds</t>
   </si>
 </sst>
 </file>
@@ -1056,32 +1215,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1094,36 +1256,45 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>135</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1136,36 +1307,45 @@
       <c r="D6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>136</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1178,36 +1358,45 @@
       <c r="D10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>139</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1220,36 +1409,45 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>141</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1262,36 +1460,45 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>142</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>143</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1304,36 +1511,45 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="B23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>144</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>145</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1346,36 +1562,45 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>147</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1388,36 +1613,45 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>149</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1430,36 +1664,45 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>150</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1472,36 +1715,45 @@
       <c r="D38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" t="s">
         <v>101</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>153</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1514,36 +1766,45 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
         <v>102</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>154</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
         <v>103</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1556,36 +1817,45 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" t="s">
         <v>104</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>156</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
       <c r="B48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>157</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1598,36 +1868,45 @@
       <c r="D50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>158</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" t="s">
         <v>107</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>159</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1640,36 +1919,45 @@
       <c r="D54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>160</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>161</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1682,36 +1970,45 @@
       <c r="D58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>162</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
         <v>111</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>163</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1724,36 +2021,45 @@
       <c r="D62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" t="s">
         <v>112</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>164</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" t="s">
         <v>113</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>165</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1766,36 +2072,45 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
       <c r="B67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" t="s">
         <v>114</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>166</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
       <c r="B68" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" t="s">
         <v>115</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>167</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -1808,36 +2123,45 @@
       <c r="D70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
       <c r="B71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
         <v>116</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>168</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
       <c r="B72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>169</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -1850,36 +2174,45 @@
       <c r="D74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>66</v>
       </c>
       <c r="B75" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" t="s">
         <v>118</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>170</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
       <c r="B76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" t="s">
         <v>119</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>171</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -1892,36 +2225,45 @@
       <c r="D78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>68</v>
       </c>
       <c r="B79" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" t="s">
         <v>120</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>172</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
       <c r="B80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>173</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -1934,36 +2276,45 @@
       <c r="D82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" t="s">
         <v>122</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>174</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>71</v>
       </c>
       <c r="B84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" t="s">
         <v>123</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>175</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -1976,36 +2327,45 @@
       <c r="D86" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
       <c r="B87" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" t="s">
         <v>124</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>176</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>73</v>
       </c>
       <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" t="s">
         <v>125</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>177</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -2018,36 +2378,45 @@
       <c r="D90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>74</v>
       </c>
       <c r="B91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" t="s">
         <v>126</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>178</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>75</v>
       </c>
       <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" t="s">
         <v>127</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>179</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2060,36 +2429,45 @@
       <c r="D94" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>76</v>
       </c>
       <c r="B95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" t="s">
         <v>128</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>180</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>77</v>
       </c>
       <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" t="s">
         <v>129</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>181</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -2102,36 +2480,45 @@
       <c r="D98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
       <c r="B99" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" t="s">
         <v>130</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>182</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
       <c r="B100" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" t="s">
         <v>131</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>183</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -2144,32 +2531,41 @@
       <c r="D102" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>80</v>
       </c>
       <c r="B103" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" t="s">
         <v>132</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>184</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>81</v>
       </c>
       <c r="B104" t="s">
+        <v>290</v>
+      </c>
+      <c r="C104" t="s">
         <v>133</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>185</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>237</v>
       </c>
     </row>
